--- a/Documents/Terminablauf.xlsx
+++ b/Documents/Terminablauf.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>KW</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>Infos bei Nico, Jens Rohnstock, Peter</t>
+  </si>
+  <si>
+    <t>Parameter aus DOORS importieren und danach in .testona XML Datei speichern</t>
+  </si>
+  <si>
+    <t>Beim Umschalten zwichen Varianten, sollen die Parameterwerte sich auch ändern</t>
+  </si>
+  <si>
+    <t>Testfälle die durch gleiche Parameterwerte enstehen, sollen entfernt werden oder de´n Benutzer benachrichtigen</t>
+  </si>
+  <si>
+    <t>Testfallabdeckung garantieren und ähnliche Tests "ignorieren"</t>
   </si>
 </sst>
 </file>
@@ -355,13 +367,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -669,7 +681,7 @@
   <dimension ref="B2:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,6 +701,9 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -697,6 +712,9 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -705,6 +723,9 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
@@ -712,6 +733,9 @@
       </c>
       <c r="C6" t="s">
         <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -719,21 +743,21 @@
       <c r="B9" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="25" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
-      <c r="K9" s="25"/>
+      <c r="K9" s="26"/>
       <c r="M9" t="s">
         <v>17</v>
       </c>

--- a/Documents/Terminablauf.xlsx
+++ b/Documents/Terminablauf.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>KW</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Parameter Import</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>Duplikate</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
   </si>
   <si>
     <t>Aufgabe</t>
-  </si>
-  <si>
-    <t>Peter abwesend:</t>
   </si>
   <si>
     <t>AP 1 - 2</t>
@@ -678,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M18"/>
+  <dimension ref="B2:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,12 +683,12 @@
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -702,67 +696,64 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
       <c r="K9" s="26"/>
-      <c r="M9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <v>2</v>
       </c>
@@ -773,7 +764,7 @@
         <v>42015</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
@@ -781,12 +772,12 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
         <v>3</v>
       </c>
@@ -797,7 +788,7 @@
         <v>42022</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>5</v>
@@ -805,15 +796,12 @@
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="22"/>
-      <c r="M11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="21">
         <v>4</v>
       </c>
@@ -824,7 +812,7 @@
         <v>42029</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>6</v>
@@ -834,11 +822,8 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="22"/>
-      <c r="M12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="21">
         <v>5</v>
       </c>
@@ -849,7 +834,7 @@
         <v>42036</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>6</v>
@@ -859,11 +844,8 @@
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="22"/>
-      <c r="M13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="21">
         <v>6</v>
       </c>
@@ -874,7 +856,7 @@
         <v>42043</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>2</v>
@@ -885,7 +867,7 @@
       <c r="J14" s="20"/>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="21">
         <v>7</v>
       </c>
@@ -905,7 +887,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="22"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="21">
         <v>8</v>
       </c>
@@ -936,7 +918,7 @@
         <v>42064</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
@@ -953,13 +935,13 @@
         <v>42065</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
